--- a/data/Population.xlsx
+++ b/data/Population.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andri\Documents\GitHub\COVID19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrija Master\Documents\GitHub\COVID19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248D46FE-67F1-4CBB-91E3-BC1C831668B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10785" xr2:uid="{0BB6C1B2-445C-4B51-A74B-EBD524154DD9}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,9 +41,6 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -97,12 +93,15 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>Iran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,8 +179,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -489,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C77CA-4E0D-4286-9E3E-01CF3AB665BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,31 +559,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>6948445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57237740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>1439323776</v>
+        <v>4105267</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>4105267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>65273511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>65273511</v>
+      <c r="B7" s="3">
+        <v>83783942</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>83783942</v>
+        <v>10423054</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,20 +599,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>10423054</v>
+        <v>9660351</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>9660351</v>
+        <v>83889077</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>4937786</v>
@@ -593,7 +620,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>60461826</v>
@@ -601,7 +628,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>17134872</v>
@@ -609,7 +636,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>5421241</v>
@@ -617,7 +644,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>10196709</v>
@@ -625,7 +652,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>7020858</v>
@@ -633,7 +660,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>46754778</v>
@@ -641,7 +668,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>10099265</v>
@@ -649,7 +676,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>8654622</v>
@@ -657,7 +684,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>84339067</v>
@@ -665,7 +692,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>67886011</v>
